--- a/FitnessData/static7/pso/analysis.xlsx
+++ b/FitnessData/static7/pso/analysis.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>330.57</v>
+        <v>293.12</v>
       </c>
       <c r="B2" t="n">
-        <v>311.05</v>
+        <v>292.08</v>
       </c>
       <c r="C2" t="n">
-        <v>302.17</v>
+        <v>277.71</v>
       </c>
       <c r="D2" t="n">
-        <v>316.98</v>
+        <v>293.97</v>
       </c>
       <c r="E2" t="n">
-        <v>308.27</v>
+        <v>325.17</v>
       </c>
       <c r="F2" t="n">
-        <v>318.78</v>
+        <v>302.31</v>
       </c>
       <c r="G2" t="n">
-        <v>302.21</v>
+        <v>303.2</v>
       </c>
       <c r="H2" t="n">
-        <v>283.81</v>
+        <v>293.77</v>
       </c>
       <c r="I2" t="n">
-        <v>288.74</v>
+        <v>286.15</v>
       </c>
       <c r="J2" t="n">
-        <v>307.93</v>
+        <v>294.81</v>
       </c>
       <c r="K2" t="n">
-        <v>328.94</v>
+        <v>305.55</v>
       </c>
       <c r="L2" t="n">
-        <v>289.08</v>
+        <v>311.97</v>
       </c>
       <c r="M2" t="n">
-        <v>316.19</v>
+        <v>297.69</v>
       </c>
       <c r="N2" t="n">
-        <v>312.44</v>
+        <v>301.11</v>
       </c>
       <c r="O2" t="n">
-        <v>295.7</v>
+        <v>306.04</v>
       </c>
       <c r="P2" t="n">
-        <v>278.27</v>
+        <v>297.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>312.98</v>
+        <v>289.81</v>
       </c>
       <c r="R2" t="n">
-        <v>300.45</v>
+        <v>266.69</v>
       </c>
       <c r="S2" t="n">
-        <v>287.38</v>
+        <v>285.68</v>
       </c>
       <c r="T2" t="n">
-        <v>296.03</v>
+        <v>300</v>
       </c>
       <c r="U2" t="n">
-        <v>278.27</v>
+        <v>266.69</v>
       </c>
       <c r="V2" t="n">
-        <v>304.3984999999999</v>
+        <v>296.2255000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>14.59723379526698</v>
+        <v>12.36713704477357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>722.24</v>
+        <v>706.75</v>
       </c>
       <c r="B3" t="n">
-        <v>738.76</v>
+        <v>760.5599999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>729.7</v>
+        <v>713.74</v>
       </c>
       <c r="D3" t="n">
-        <v>779.62</v>
+        <v>731.53</v>
       </c>
       <c r="E3" t="n">
-        <v>698.08</v>
+        <v>732.88</v>
       </c>
       <c r="F3" t="n">
-        <v>706.73</v>
+        <v>695.9299999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>736.3099999999999</v>
+        <v>708.1900000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>768.86</v>
+        <v>723.49</v>
       </c>
       <c r="I3" t="n">
-        <v>790.42</v>
+        <v>731.4</v>
       </c>
       <c r="J3" t="n">
-        <v>763.28</v>
+        <v>717.62</v>
       </c>
       <c r="K3" t="n">
-        <v>701.28</v>
+        <v>704.96</v>
       </c>
       <c r="L3" t="n">
-        <v>735.74</v>
+        <v>709.58</v>
       </c>
       <c r="M3" t="n">
-        <v>744.5</v>
+        <v>724.8</v>
       </c>
       <c r="N3" t="n">
-        <v>752.0700000000001</v>
+        <v>703.45</v>
       </c>
       <c r="O3" t="n">
-        <v>755.84</v>
+        <v>701.99</v>
       </c>
       <c r="P3" t="n">
-        <v>741.38</v>
+        <v>654.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>740.39</v>
+        <v>705.38</v>
       </c>
       <c r="R3" t="n">
-        <v>752.63</v>
+        <v>694.26</v>
       </c>
       <c r="S3" t="n">
-        <v>791.38</v>
+        <v>674.59</v>
       </c>
       <c r="T3" t="n">
-        <v>766.61</v>
+        <v>782.36</v>
       </c>
       <c r="U3" t="n">
-        <v>698.08</v>
+        <v>654.54</v>
       </c>
       <c r="V3" t="n">
-        <v>745.7909999999998</v>
+        <v>713.9</v>
       </c>
       <c r="W3" t="n">
-        <v>26.71556039779852</v>
+        <v>27.48144484058863</v>
       </c>
     </row>
   </sheetData>
